--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks\Documents\Прога\16.09\HT_1_23sep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEBE5C7-633D-4158-BEA1-E0D3C12A22F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCBACEC-59E6-4B1E-BF29-912E7D1B630D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
   <si>
     <t>№</t>
   </si>
@@ -118,6 +118,63 @@
   </si>
   <si>
     <t>Cos(Arctg(x))</t>
+  </si>
+  <si>
+    <t>Задание 2</t>
+  </si>
+  <si>
+    <t>x = 0, y = -7</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>x = 0, y = 5</t>
+  </si>
+  <si>
+    <t>x = 5, y = 0</t>
+  </si>
+  <si>
+    <t>x = 5, y = -7</t>
+  </si>
+  <si>
+    <t>x = 0, y = 5,1</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>x = 0, y = -7,1</t>
+  </si>
+  <si>
+    <t>x = 6, y = 0</t>
+  </si>
+  <si>
+    <t>x = 3, y = 2</t>
+  </si>
+  <si>
+    <t>x = 3, y = 2,1</t>
+  </si>
+  <si>
+    <t>x = -1, y = 5</t>
+  </si>
+  <si>
+    <t>x = -2, y = -1</t>
+  </si>
+  <si>
+    <t>x = 3, y = 1</t>
+  </si>
+  <si>
+    <t>x = 2, y = -6</t>
+  </si>
+  <si>
+    <t>x = qwe</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>x = 3, y = asd</t>
   </si>
 </sst>
 </file>
@@ -158,7 +215,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -282,35 +339,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -391,14 +424,17 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,6 +451,65 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>605937</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF7126C-24A3-4851-9D8F-0E12D62B9DB9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -679,35 +774,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="29"/>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="J1" s="29"/>
       <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-    </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L1" s="29"/>
+    </row>
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -723,8 +826,25 @@
       <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -740,8 +860,20 @@
       <c r="E3" s="24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="19"/>
       <c r="C4" s="14" t="s">
@@ -753,8 +885,20 @@
       <c r="E4" s="16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="20"/>
       <c r="C5" s="15" t="s">
@@ -766,8 +910,20 @@
       <c r="E5" s="25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G5" s="4">
+        <v>3</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -783,8 +939,20 @@
       <c r="E6" s="26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G6" s="4">
+        <v>4</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="22"/>
       <c r="C7" s="16" t="s">
@@ -796,8 +964,20 @@
       <c r="E7" s="26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G7" s="4">
+        <v>5</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="23"/>
       <c r="C8" s="17" t="s">
@@ -809,8 +989,20 @@
       <c r="E8" s="27" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G8" s="4">
+        <v>6</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -827,8 +1019,20 @@
       <c r="E9" s="17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G9" s="4">
+        <v>7</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>4</v>
       </c>
@@ -845,8 +1049,20 @@
       <c r="E10" s="17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G10" s="4">
+        <v>8</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -860,8 +1076,20 @@
         <v>6</v>
       </c>
       <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G11" s="4">
+        <v>9</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>6</v>
       </c>
@@ -875,8 +1103,20 @@
         <v>6</v>
       </c>
       <c r="E12" s="18"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G12" s="4">
+        <v>10</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>7</v>
       </c>
@@ -890,8 +1130,20 @@
         <v>6</v>
       </c>
       <c r="E13" s="18"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G13" s="4">
+        <v>11</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>8</v>
       </c>
@@ -905,8 +1157,20 @@
         <v>6</v>
       </c>
       <c r="E14" s="18"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G14" s="4">
+        <v>12</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>9</v>
       </c>
@@ -920,10 +1184,50 @@
         <v>6</v>
       </c>
       <c r="E15" s="18"/>
+      <c r="G15" s="4">
+        <v>13</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G16" s="4">
+        <v>14</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="4">
+        <v>15</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="K2:M2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A6:A8"/>
@@ -931,5 +1235,34 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="PBrush" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="PBrush" shapeId="1025" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>